--- a/data-public/raw/meta-2019-01-15.xlsx
+++ b/data-public/raw/meta-2019-01-15.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koval\Documents\GitHub\ucf\medicare-decision-trees\data-public\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\an499583\Documents\GitHub\medicare-decision-trees\data-public\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF61C89-2893-460F-9CB5-1453E3DCD1B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$29</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t>female</t>
   </si>
@@ -32,12 +36,6 @@
     <t>dpt</t>
   </si>
   <si>
-    <t>Number of HCPCS</t>
-  </si>
-  <si>
-    <t>Number of Medicare Beneficiaries</t>
-  </si>
-  <si>
     <t>chrg_allowed_amt_ratio</t>
   </si>
   <si>
@@ -50,66 +48,24 @@
     <t>therapeutic_pct</t>
   </si>
   <si>
-    <t>proxy for # of new patients</t>
-  </si>
-  <si>
-    <t>Average Age of Beneficiaries</t>
-  </si>
-  <si>
-    <t>Average HCC Risk Score of Beneficiaries</t>
-  </si>
-  <si>
     <t>Mid-sized metro area</t>
   </si>
   <si>
     <t>Small metro area</t>
   </si>
   <si>
-    <t>Non-metropolitan area or missing (9 counties missing)</t>
-  </si>
-  <si>
     <t>Large metro area</t>
   </si>
   <si>
-    <t>Standardized Risk-Adjusted Per Capita Medicare Costs</t>
-  </si>
-  <si>
     <t>pcp_per_10k_pop_14</t>
   </si>
   <si>
     <t>pt_per_10k_pop_09</t>
   </si>
   <si>
-    <t>pct_mdcr_FF_benef_pop_14</t>
-  </si>
-  <si>
-    <t>Medicare FFS Benef Average Age Fee for Service 2014</t>
-  </si>
-  <si>
-    <t>pct_mdcr_FFS_Benef_Female_14</t>
-  </si>
-  <si>
-    <t>Medicare FFS Bene Avg HCC Score  Fee for Service 2014</t>
-  </si>
-  <si>
-    <t>pct_mdcr_Benef_Elig_Medcaid_14</t>
-  </si>
-  <si>
-    <t>Median Household Income  2014</t>
-  </si>
-  <si>
-    <t>pct_65older_in_Deep_Poverty_14</t>
-  </si>
-  <si>
     <t>pt_bene_ratio</t>
   </si>
   <si>
-    <t>Number of Services</t>
-  </si>
-  <si>
-    <t>Total Medicare Standardized Payment Amount</t>
-  </si>
-  <si>
     <t>name_old</t>
   </si>
   <si>
@@ -119,16 +75,322 @@
     <t>label</t>
   </si>
   <si>
-    <t>n_hcpcs</t>
-  </si>
-  <si>
-    <t>n_medben</t>
+    <t>Reporting DPT degree</t>
+  </si>
+  <si>
+    <t>Gender of PT</t>
+  </si>
+  <si>
+    <t>Number of HCPCS/CPT codes billed</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>number_of_hcpcs</t>
+  </si>
+  <si>
+    <t>number_of_medicare_beneficiaries</t>
+  </si>
+  <si>
+    <t>proxy_for_n_of_new_patients</t>
+  </si>
+  <si>
+    <t>average_age_of_beneficiaries</t>
+  </si>
+  <si>
+    <t>average_hcc_risk_score_of_beneficiaries</t>
+  </si>
+  <si>
+    <t>mid_sized_metro_area</t>
+  </si>
+  <si>
+    <t>small_metro_area</t>
+  </si>
+  <si>
+    <t>non_metropolitan_area_or_missing_9_counties_missing</t>
+  </si>
+  <si>
+    <t>large_metro_area</t>
+  </si>
+  <si>
+    <t>standardized_risk_adjusted_per_capita_medicare_costs</t>
+  </si>
+  <si>
+    <t>pct_mdcr_ff_benef_pop_14</t>
+  </si>
+  <si>
+    <t>medicare_ffs_benef_average_age_fee_for_service_2014</t>
+  </si>
+  <si>
+    <t>pct_mdcr_ffs_benef_female_14</t>
+  </si>
+  <si>
+    <t>pct_mdcr_benef_elig_medcaid_14</t>
+  </si>
+  <si>
+    <t>pct_65older_in_deep_poverty_14</t>
+  </si>
+  <si>
+    <t>number_of_services</t>
+  </si>
+  <si>
+    <t>total_medicare_standardized_payment_amount</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries served</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge to Medicare allowed amount ratio   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Medicare standardized payment amount per beneficiary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion of physical agents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of new patients </t>
+  </si>
+  <si>
+    <t>Average age of beneficiaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average HCC risk score of beneficiaries </t>
+  </si>
+  <si>
+    <t>Non-metropolitan area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary care physicians per 10,000 population, county level    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTs per 10,000 population (2009), county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average age of beneficiaries, county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Percent of female beneficiaries, county level       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average HCC risk score of beneficiaries, county level</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Percent of beneficiaries eligible for Medicaid, county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiaries as a share of total population, county level    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardized Risk-Adjusted Per Capita Medicare Costs, county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median Household Income, county level     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Percent of persons 65 or older in deep poverty, county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PTs per 10,000 beneficiaries, county level </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Number of services performed     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Medicare standardized payment amount   </t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>n_medicare_beneficiaries</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>dollars</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>n_new_patients</t>
+  </si>
+  <si>
+    <t>n_procedures_codes</t>
+  </si>
+  <si>
+    <t>allowed_to_charged_ratio</t>
+  </si>
+  <si>
+    <t>pct_physical_agents</t>
+  </si>
+  <si>
+    <t>medicare_pay_per_benef</t>
+  </si>
+  <si>
+    <t>benef_mean_age</t>
+  </si>
+  <si>
+    <t>benef_mean_risk_score</t>
+  </si>
+  <si>
+    <t>mid_metro_area</t>
+  </si>
+  <si>
+    <t>non_metro_area</t>
+  </si>
+  <si>
+    <t>benef_mean_age_county</t>
+  </si>
+  <si>
+    <t>benef_female_county</t>
+  </si>
+  <si>
+    <t>benef_mean_risk_score_county</t>
+  </si>
+  <si>
+    <t>medicare_ffs_bene_avg_hcc_score_fee_for_service_2014</t>
+  </si>
+  <si>
+    <t>median_household_income_2014</t>
+  </si>
+  <si>
+    <t>name_short</t>
+  </si>
+  <si>
+    <t>p02_dpt</t>
+  </si>
+  <si>
+    <t>m01_large</t>
+  </si>
+  <si>
+    <t>m02_mid</t>
+  </si>
+  <si>
+    <t>m03_small</t>
+  </si>
+  <si>
+    <t>m06_pt10k</t>
+  </si>
+  <si>
+    <t>m07_age</t>
+  </si>
+  <si>
+    <t>m08_female</t>
+  </si>
+  <si>
+    <t>p01_female</t>
+  </si>
+  <si>
+    <t>m09_risk</t>
+  </si>
+  <si>
+    <t>m10_eligible</t>
+  </si>
+  <si>
+    <t>p03_ncodes</t>
+  </si>
+  <si>
+    <t>p04_nbenef</t>
+  </si>
+  <si>
+    <t>p05_ratio</t>
+  </si>
+  <si>
+    <t>p06_payperb</t>
+  </si>
+  <si>
+    <t>p06_agents</t>
+  </si>
+  <si>
+    <t>m11_share</t>
+  </si>
+  <si>
+    <t>m12_cost</t>
+  </si>
+  <si>
+    <t>m13_income</t>
+  </si>
+  <si>
+    <t>m14_65older</t>
+  </si>
+  <si>
+    <t>m15_pt10kben</t>
+  </si>
+  <si>
+    <t>m04_notmetro</t>
+  </si>
+  <si>
+    <t>m05_prime10k</t>
+  </si>
+  <si>
+    <t>total_payment</t>
+  </si>
+  <si>
+    <t>n_services</t>
+  </si>
+  <si>
+    <t>pct_eligible_benefs</t>
+  </si>
+  <si>
+    <t>share_benefs</t>
+  </si>
+  <si>
+    <t>medicare_cost</t>
+  </si>
+  <si>
+    <t>household_income</t>
+  </si>
+  <si>
+    <t>pct_65older_poor</t>
+  </si>
+  <si>
+    <t>pct_theratputic</t>
+  </si>
+  <si>
+    <t>per10k</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>p07_therapeutic</t>
+  </si>
+  <si>
+    <t>p08_newpat</t>
+  </si>
+  <si>
+    <t>p09_age</t>
+  </si>
+  <si>
+    <t>p10_risk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -439,177 +701,603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="2" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="55.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F30" xr:uid="{19A54B4D-2270-4D50-945D-AEE062276F84}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>